--- a/public/excel/BrandDetails.xlsx
+++ b/public/excel/BrandDetails.xlsx
@@ -47,7 +47,7 @@
     <t>WhatsApp</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Not Applicable</t>
   </si>
   <si>
     <t>Y</t>
@@ -56,7 +56,7 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>https://www.facebook.com</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -398,18 +398,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F1" sqref="F1:F4"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -482,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -492,6 +492,26 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12546636</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/BrandDetails.xlsx
+++ b/public/excel/BrandDetails.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Sr. No</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Facebook</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -398,10 +395,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,26 +489,6 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12546636</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/BrandDetails.xlsx
+++ b/public/excel/BrandDetails.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Sr. No</t>
   </si>
@@ -35,52 +35,13 @@
     <t>Generate OTP</t>
   </si>
   <si>
-    <t>Device Name</t>
-  </si>
-  <si>
-    <t>Device id</t>
-  </si>
-  <si>
-    <t>Opertor</t>
-  </si>
-  <si>
-    <t>Run by</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>amezone</t>
-  </si>
-  <si>
-    <t>www.amezone.com</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Samasung M31</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>Admin Admin</t>
-  </si>
-  <si>
-    <t>facebook 1</t>
-  </si>
-  <si>
-    <t>www.facebook.com</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Shopecluse</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -422,28 +383,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F1" sqref="F1:F4"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,119 +418,25 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2">
-        <v>123456780</v>
+        <v>1234567890</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2">
-        <v>123456780</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <v>123456780</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
